--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Emettitore</t>
   </si>
@@ -33,10 +33,19 @@
     <t>sigmateta</t>
   </si>
   <si>
+    <t>scala</t>
+  </si>
+  <si>
     <t>10cm</t>
   </si>
   <si>
     <t>100cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passo 5deg</t>
+  </si>
+  <si>
+    <t>x30</t>
   </si>
 </sst>
 </file>
@@ -593,6 +602,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.28125"/>
+    <col customWidth="1" min="6" max="6" width="12.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -614,13 +624,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -630,6 +643,12 @@
       </c>
       <c r="E2" s="3">
         <v>0.02</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25">

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Emettitore</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>sigmaV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (mA)</t>
+  </si>
+  <si>
+    <t>sigmaI</t>
   </si>
   <si>
     <t>sigmateta</t>
@@ -83,10 +89,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +610,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.28125"/>
-    <col customWidth="1" min="6" max="6" width="12.421875"/>
+    <col customWidth="1" min="8" max="8" width="12.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -621,166 +629,250 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>1.6699999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="D2" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1.6299999999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1.45</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.014999999999999999</v>
+      <c r="E4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.34000000000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>45</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="C6" s="3">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="C7" s="3">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="C8" s="3">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="C9" s="3">
+        <v>-15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6399999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10" s="3">
+        <v>-30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.34000000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="C11" s="3">
+        <v>-45</v>
+      </c>
+      <c r="D11" s="4">
         <v>1.1799999999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="C12" s="3">
+        <v>-60</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F12" s="5">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="C13" s="3">
+        <v>-75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.35999999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="C14" s="3">
+        <v>-90</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="C7" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.35999999999999999</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="E14" s="4">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="C8" s="2">
-        <v>90</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.0030000000000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="C9" s="2">
-        <v>-15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.5800000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="C10" s="2">
-        <v>-30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.4299999999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="C11" s="2">
-        <v>-45</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.014999999999999999</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="C12" s="2">
-        <v>-60</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="C13" s="2">
-        <v>-75</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="C14" s="2">
-        <v>-90</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.001</v>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -89,12 +89,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +627,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -649,19 +647,19 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1.7</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.40000000000000002</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>0.02</v>
       </c>
       <c r="H2" t="s">
@@ -672,206 +670,206 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.6299999999999999</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.38</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.45</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.34000000000000002</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>45</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.26000000000000001</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.80000000000000004</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.01</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.16</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>75</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.34999999999999998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.01</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.080000000000000002</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>90</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>-15</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.6399999999999999</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.38</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>-30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1.46</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.34000000000000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>-45</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1.1799999999999999</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.26000000000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>-60</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.80000000000000004</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.01</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0.17999999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>-75</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.35999999999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.01</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="3">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>-90</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>0.02</v>
       </c>
     </row>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -21,7 +21,7 @@
     <t>Ricevitore</t>
   </si>
   <si>
-    <t xml:space="preserve">teta (deg)</t>
+    <t xml:space="preserve">alpha (deg)</t>
   </si>
   <si>
     <t xml:space="preserve">V (Volt)</t>
@@ -36,7 +36,7 @@
     <t>sigmaI</t>
   </si>
   <si>
-    <t>sigmateta</t>
+    <t>sigmaalpha</t>
   </si>
   <si>
     <t>scala</t>
@@ -608,6 +608,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.28125"/>
+    <col customWidth="1" min="3" max="3" width="14.28125"/>
     <col customWidth="1" min="8" max="8" width="12.421875"/>
   </cols>
   <sheetData>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ampiezza angolo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ampiezza distanza" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Emettitore</t>
   </si>
@@ -52,29 +54,96 @@
   </si>
   <si>
     <t>x30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teta (deg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V (Volt) NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigmaV NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 (piede)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (pancia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricevitore MIN (piede) (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmin (Volt)</t>
+  </si>
+  <si>
+    <t>sigmaVmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricevitore MAX (piede) (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmax (Volt)</t>
+  </si>
+  <si>
+    <t>sigmaVmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emettitore (piede) (cm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,17 +155,38 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,4 +970,704 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="13.00390625"/>
+    <col customWidth="1" min="3" max="3" width="12.8515625"/>
+    <col customWidth="1" min="4" max="4" width="14.28125"/>
+    <col customWidth="1" min="5" max="5" width="15.8515625"/>
+    <col customWidth="1" min="6" max="6" width="11.8515625"/>
+    <col customWidth="1" min="7" max="7" width="19.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.5499999999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4.6200000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1799999999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.0499999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3.6899999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>-20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.6799999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-30</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>-40</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.00390625"/>
+    <col customWidth="1" min="4" max="4" width="30.8515625"/>
+    <col customWidth="1" min="5" max="6" width="11.7109375"/>
+    <col customWidth="1" min="7" max="7" width="17.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="10">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.3399999999999999</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="11">
+        <v>53.299999999999997</v>
+      </c>
+      <c r="E2" s="12">
+        <v>3.5299999999999998</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="10">
+        <v>52.600000000000001</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="11">
+        <v>51.899999999999999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3.3799999999999999</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="10">
+        <v>51.200000000000003</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.2000000000000002</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="11">
+        <v>50.5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3.2799999999999998</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="10">
+        <v>49.799999999999997</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3.1299999999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="11">
+        <v>49.100000000000001</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3.2000000000000002</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="10">
+        <v>48.399999999999999</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3.0499999999999998</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="10">
+        <v>47.700000000000003</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.1000000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="10">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.9399999999999999</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="10">
+        <v>46.299999999999997</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="10">
+        <v>45.600000000000001</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2.8500000000000001</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.9199999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="10">
+        <v>44.200000000000003</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2.7400000000000002</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.8199999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="13">
+        <v>46.799999999999997</v>
+      </c>
+      <c r="B10" s="14">
+        <v>4.1299999999999999</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="10">
+        <v>47.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="13">
+        <v>45.399999999999999</v>
+      </c>
+      <c r="B11" s="14">
+        <v>4.0300000000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="10">
+        <v>46.100000000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.6799999999999997</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="13">
+        <v>44</v>
+      </c>
+      <c r="B12" s="14">
+        <v>3.96</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="10">
+        <v>44.600000000000001</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3.8100000000000001</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="10">
+        <v>43.299999999999997</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.3799999999999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="13">
+        <v>41</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3.7599999999999998</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="10">
+        <v>41.899999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="13">
+        <v>39.600000000000001</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3.6800000000000002</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="10">
+        <v>40.399999999999999</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="13">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3.5499999999999998</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="10">
+        <v>38.899999999999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.04</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="13">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3.4700000000000002</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.8500000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="13">
+        <v>35.399999999999999</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3.3900000000000001</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="10">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="D19" s="10">
+        <v>34.600000000000001</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3.6200000000000001</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Emettitore</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve">Emettitore (piede) (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmax (volt)</t>
+  </si>
+  <si>
+    <t>80cm</t>
   </si>
 </sst>
 </file>
@@ -100,7 +109,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -119,8 +128,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +160,12 @@
         <bgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,26 +176,25 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -182,11 +202,12 @@
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent6" xfId="3" builtinId="49"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -979,7 +1000,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="13.00390625"/>
     <col customWidth="1" min="3" max="3" width="12.8515625"/>
@@ -999,10 +1020,10 @@
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1016,13 +1037,13 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>3.5499999999999998</v>
       </c>
       <c r="C2" s="4">
         <v>0.01</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>4.6200000000000001</v>
       </c>
       <c r="E2" s="3">
@@ -1039,13 +1060,13 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2.7000000000000002</v>
       </c>
       <c r="C3" s="4">
         <v>0.01</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4.1900000000000004</v>
       </c>
       <c r="E3" s="3">
@@ -1056,13 +1077,13 @@
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.1799999999999999</v>
       </c>
       <c r="C4" s="4">
         <v>0.01</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2.2599999999999998</v>
       </c>
       <c r="E4" s="3">
@@ -1073,13 +1094,13 @@
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.56000000000000005</v>
       </c>
       <c r="C5" s="4">
         <v>0.01</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.85999999999999999</v>
       </c>
       <c r="E5" s="3">
@@ -1090,13 +1111,13 @@
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.20000000000000001</v>
       </c>
       <c r="C6" s="4">
         <v>0.01</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.31</v>
       </c>
       <c r="E6" s="3">
@@ -1107,13 +1128,13 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.059999999999999998</v>
       </c>
       <c r="C7" s="4">
         <v>0.0050000000000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.050000000000000003</v>
       </c>
       <c r="E7" s="3">
@@ -1124,13 +1145,13 @@
       <c r="A8">
         <v>-10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3.0499999999999998</v>
       </c>
       <c r="C8" s="4">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>3.6899999999999999</v>
       </c>
       <c r="E8" s="3">
@@ -1141,13 +1162,13 @@
       <c r="A9">
         <v>-20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1.6799999999999999</v>
       </c>
       <c r="C9" s="4">
         <v>0.02</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1.8899999999999999</v>
       </c>
       <c r="E9" s="3">
@@ -1158,13 +1179,13 @@
       <c r="A10">
         <v>-30</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.75</v>
       </c>
       <c r="C10" s="4">
         <v>0.02</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
@@ -1175,13 +1196,13 @@
       <c r="A11">
         <v>-40</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.29999999999999999</v>
       </c>
       <c r="C11" s="4">
         <v>0.01</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.19</v>
       </c>
       <c r="E11" s="3">
@@ -1192,13 +1213,13 @@
       <c r="A12">
         <v>-50</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.11</v>
       </c>
       <c r="C12" s="4">
         <v>0.01</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.029999999999999999</v>
       </c>
       <c r="E12" s="3">
@@ -1220,7 +1241,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1230,75 +1251,89 @@
     <col customWidth="1" min="4" max="4" width="30.8515625"/>
     <col customWidth="1" min="5" max="6" width="11.7109375"/>
     <col customWidth="1" min="7" max="7" width="17.28125"/>
+    <col customWidth="1" min="9" max="9" width="14.7109375"/>
+    <col customWidth="1" min="10" max="10" width="12.7109375"/>
+    <col customWidth="1" min="11" max="11" width="13.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1"/>
+      <c r="I1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="10">
         <v>54</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>3.3399999999999999</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="10">
         <v>53.299999999999997</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>3.5299999999999998</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="6">
         <v>0.02</v>
       </c>
       <c r="G2">
         <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="10">
         <v>52.600000000000001</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>3.27</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="10">
         <v>51.899999999999999</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>3.3799999999999999</v>
       </c>
-      <c r="F3" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1306,22 +1341,22 @@
       <c r="A4" s="10">
         <v>51.200000000000003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>3.2000000000000002</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="10">
         <v>50.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>3.2799999999999998</v>
       </c>
-      <c r="F4" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1329,22 +1364,22 @@
       <c r="A5" s="10">
         <v>49.799999999999997</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3.1299999999999999</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="10">
         <v>49.100000000000001</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>3.2000000000000002</v>
       </c>
-      <c r="F5" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1352,22 +1387,22 @@
       <c r="A6" s="10">
         <v>48.399999999999999</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3.0499999999999998</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.02</v>
       </c>
       <c r="D6" s="10">
         <v>47.700000000000003</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>3.1000000000000001</v>
       </c>
-      <c r="F6" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1375,22 +1410,22 @@
       <c r="A7" s="10">
         <v>47</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2.9399999999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.02</v>
       </c>
       <c r="D7" s="10">
         <v>46.299999999999997</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1398,22 +1433,22 @@
       <c r="A8" s="10">
         <v>45.600000000000001</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2.8500000000000001</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.02</v>
       </c>
       <c r="D8" s="10">
         <v>45</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1.9199999999999999</v>
       </c>
-      <c r="F8" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1421,42 +1456,42 @@
       <c r="A9" s="10">
         <v>44.200000000000003</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2.7400000000000002</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.02</v>
       </c>
       <c r="D9" s="10">
         <v>43.5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>2.8199999999999998</v>
       </c>
-      <c r="F9" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>46.799999999999997</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>4.1299999999999999</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0.02</v>
       </c>
       <c r="D10" s="10">
         <v>47.5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.02</v>
       </c>
       <c r="G10">
@@ -1464,22 +1499,22 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>45.399999999999999</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>4.0300000000000002</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>0.01</v>
       </c>
       <c r="D11" s="10">
         <v>46.100000000000001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>4.6799999999999997</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.02</v>
       </c>
       <c r="G11">
@@ -1487,22 +1522,22 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>44</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>3.96</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>0.02</v>
       </c>
       <c r="D12" s="10">
         <v>44.600000000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>4.54</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>0.01</v>
       </c>
       <c r="G12">
@@ -1510,22 +1545,22 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>42.5</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>3.8100000000000001</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>0.01</v>
       </c>
       <c r="D13" s="10">
         <v>43.299999999999997</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>4.3799999999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>0.02</v>
       </c>
       <c r="G13">
@@ -1533,22 +1568,22 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>41</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>3.7599999999999998</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>0.02</v>
       </c>
       <c r="D14" s="10">
         <v>41.899999999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.01</v>
       </c>
       <c r="G14">
@@ -1556,22 +1591,22 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>39.600000000000001</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>3.6800000000000002</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>0.02</v>
       </c>
       <c r="D15" s="10">
         <v>40.399999999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>4.25</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0.02</v>
       </c>
       <c r="G15">
@@ -1579,22 +1614,22 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>38.200000000000003</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>3.5499999999999998</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>0.02</v>
       </c>
       <c r="D16" s="10">
         <v>38.899999999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4.04</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>0.02</v>
       </c>
       <c r="G16">
@@ -1602,22 +1637,22 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>36.799999999999997</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>3.4700000000000002</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>0.02</v>
       </c>
       <c r="D17" s="10">
         <v>37.5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>3.8500000000000001</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>0.02</v>
       </c>
       <c r="G17">
@@ -1625,22 +1660,22 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>35.399999999999999</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>3.3900000000000001</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>0.02</v>
       </c>
       <c r="D18" s="10">
         <v>36</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>3.7000000000000002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0.02</v>
       </c>
       <c r="G18">
@@ -1651,10 +1686,10 @@
       <c r="D19" s="10">
         <v>34.600000000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>3.6200000000000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>0.02</v>
       </c>
       <c r="G19">

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Emettitore</t>
   </si>
@@ -92,13 +92,16 @@
     <t xml:space="preserve">Emettitore (piede) (cm)</t>
   </si>
   <si>
-    <t xml:space="preserve">MAX (cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmax (volt)</t>
-  </si>
-  <si>
-    <t>80cm</t>
+    <t xml:space="preserve">MAX (cm) controllo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmax (volt) controllo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigmaVmax controllo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emettitore controllo</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1252,8 +1255,8 @@
     <col customWidth="1" min="5" max="6" width="11.7109375"/>
     <col customWidth="1" min="7" max="7" width="17.28125"/>
     <col customWidth="1" min="9" max="9" width="14.7109375"/>
-    <col customWidth="1" min="10" max="10" width="12.7109375"/>
-    <col customWidth="1" min="11" max="11" width="13.00390625"/>
+    <col customWidth="1" min="10" max="11" width="12.7109375"/>
+    <col customWidth="1" min="12" max="12" width="13.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1285,7 +1288,10 @@
         <v>26</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1310,8 +1316,17 @@
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
+      <c r="I2" s="10">
+        <v>47.700000000000003</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4.8799999999999999</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L2">
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1336,6 +1351,18 @@
       <c r="G3" s="1">
         <v>100</v>
       </c>
+      <c r="I3" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4.1699999999999999</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L3">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="10">
@@ -1359,6 +1386,18 @@
       <c r="G4" s="1">
         <v>100</v>
       </c>
+      <c r="I4" s="10">
+        <v>30.300000000000001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3.2999999999999998</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="10">
@@ -1382,6 +1421,18 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
+      <c r="I5" s="10">
+        <v>20.899999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="10">
@@ -1405,6 +1456,18 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
+      <c r="I6" s="10">
+        <v>10.9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="10">
@@ -1428,6 +1491,18 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
+      <c r="I7" s="10">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.8500000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L7">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="10">
@@ -1443,12 +1518,24 @@
         <v>45</v>
       </c>
       <c r="E8" s="6">
-        <v>1.9199999999999999</v>
+        <v>2.9199999999999999</v>
       </c>
       <c r="F8" s="6">
         <v>0.02</v>
       </c>
       <c r="G8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="10">
+        <v>11.9</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L8">
         <v>100</v>
       </c>
     </row>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ampiezza angolo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ampiezza distanza" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="brester" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="doppia fenditura" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Emettitore</t>
   </si>
@@ -102,6 +104,36 @@
   </si>
   <si>
     <t xml:space="preserve">Emettitore controllo</t>
+  </si>
+  <si>
+    <t>teta90</t>
+  </si>
+  <si>
+    <t>V90</t>
+  </si>
+  <si>
+    <t>sigmaV90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teta0 NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V0 NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigmaV0 NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V90 NO</t>
+  </si>
+  <si>
+    <t>teta</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>55cm</t>
   </si>
 </sst>
 </file>
@@ -112,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -137,8 +169,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +207,26 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="5" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -178,15 +234,42 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="4" fillId="6" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
@@ -204,13 +287,27 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent6" xfId="3" builtinId="49"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1792,4 +1889,544 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2.71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.8100000000000001</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.9300000000000002</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.6499999999999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.7799999999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="18">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.6800000000000002</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3.1200000000000001</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.5899999999999999</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="18">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.6299999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.23</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="18">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3.2599999999999998</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.3199999999999998</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="18">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.2400000000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.29</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="18">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.4199999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="18">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.3300000000000001</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" s="19">
+        <v>3.5499999999999998</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.8300000000000001</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.0499999999999998</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3.9100000000000001</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.8700000000000001</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.3899999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1.78</v>
+      </c>
+      <c r="C3">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.72</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1.98</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1.97</v>
+      </c>
+      <c r="C7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1.8500000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1.6899999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1.1699999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.91000000000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.63</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>-5</v>
+      </c>
+      <c r="B15">
+        <v>1.3400000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Emettitore</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>55cm</t>
   </si>
 </sst>
 </file>
@@ -317,6 +314,960 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'doppia fenditura'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'doppia fenditura'!$A$2:$A$24</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'doppia fenditura'!$B$2:$B$24</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="2140841505"/>
+        <c:axId val="2140841506"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140841505"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841506"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2140841506"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841505"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="2901949" y="784224"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130174</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="336877870" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2901949" y="784224"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2240,6 +3191,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="14.140625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2263,16 +3217,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.3899999999999999</v>
+        <v>2.8799999999999999</v>
       </c>
       <c r="C2">
         <v>0.02</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="D2">
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2280,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="C3">
         <v>0.029999999999999999</v>
@@ -2291,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.72</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -2302,10 +3256,10 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.98</v>
+        <v>1.23</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -2313,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>2.0699999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="C6">
         <v>0.02</v>
@@ -2324,7 +3278,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1.97</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C7">
         <v>0.02</v>
@@ -2335,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.8500000000000001</v>
+        <v>0.40999999999999998</v>
       </c>
       <c r="C8">
         <v>0.02</v>
@@ -2346,7 +3300,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>1.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="C9">
         <v>0.02</v>
@@ -2357,10 +3311,10 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>1.1699999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -2368,10 +3322,10 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>1.1399999999999999</v>
+        <v>1.5700000000000001</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2379,10 +3333,10 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.91000000000000003</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -2390,37 +3344,131 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>60</v>
+        <v>-5</v>
       </c>
       <c r="B14">
-        <v>0.63</v>
+        <v>2.6600000000000001</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="B15">
-        <v>1.3400000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="C15">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-10</v>
+        <v>-15</v>
+      </c>
+      <c r="B16">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>-20</v>
+      </c>
+      <c r="B17">
+        <v>1.27</v>
+      </c>
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-25</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>-30</v>
+      </c>
+      <c r="B19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>-35</v>
+      </c>
+      <c r="B20">
+        <v>0.38</v>
+      </c>
+      <c r="C20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>-40</v>
+      </c>
+      <c r="B21">
+        <v>0.73999999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-45</v>
+      </c>
+      <c r="B22">
+        <v>1.3100000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-50</v>
+      </c>
+      <c r="B23">
+        <v>1.26</v>
+      </c>
+      <c r="C23">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-55</v>
+      </c>
+      <c r="B24">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -2428,5 +3476,6 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ampiezza angolo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ampiezza distanza" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="brester" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="brewster" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="doppia fenditura" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +222,12 @@
         <bgColor theme="5" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -256,7 +262,7 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
@@ -265,8 +271,9 @@
     <xf fontId="4" fillId="6" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
@@ -284,19 +291,22 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="8" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="2" xfId="8" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="8" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -305,6 +315,7 @@
     <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
+    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +433,16 @@
               <c:f>'doppia fenditura'!$B$2:$B$24</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="2140841505"/>
         <c:axId val="2140841506"/>
       </c:scatterChart>
@@ -489,6 +509,7 @@
         </c:txPr>
         <c:crossAx val="2140841506"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2140841506"/>
@@ -2855,41 +2876,41 @@
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="13">
+      <c r="A2" s="19">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="18">
+      <c r="F2" s="20">
         <v>0</v>
       </c>
       <c r="G2" s="5">
@@ -2912,10 +2933,12 @@
       <c r="B3" s="6">
         <v>3.9300000000000002</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
         <v>10</v>
       </c>
       <c r="G3" s="5">
@@ -2938,10 +2961,12 @@
       <c r="B4" s="6">
         <v>3.6000000000000001</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>20</v>
       </c>
       <c r="G4" s="5">
@@ -2964,10 +2989,12 @@
       <c r="B5" s="6">
         <v>3.5899999999999999</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="18">
+      <c r="F5" s="20">
         <v>30</v>
       </c>
       <c r="G5" s="5">
@@ -2990,10 +3017,12 @@
       <c r="B6" s="6">
         <v>3.54</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="18">
+      <c r="F6" s="20">
         <v>40</v>
       </c>
       <c r="G6" s="5">
@@ -3016,10 +3045,12 @@
       <c r="B7" s="6">
         <v>3.3199999999999998</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="18">
+      <c r="F7" s="20">
         <v>50</v>
       </c>
       <c r="G7" s="5">
@@ -3042,10 +3073,12 @@
       <c r="B8" s="6">
         <v>3.29</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="18">
+      <c r="F8" s="20">
         <v>60</v>
       </c>
       <c r="G8" s="5">
@@ -3068,10 +3101,12 @@
       <c r="B9" s="6">
         <v>3.21</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="18">
+      <c r="F9" s="20">
         <v>70</v>
       </c>
       <c r="G9" s="5">
@@ -3094,7 +3129,9 @@
       <c r="B10" s="6">
         <v>3.3300000000000001</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
@@ -3102,10 +3139,12 @@
       <c r="A11">
         <v>45</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="6">
         <v>3.5499999999999998</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
@@ -3116,7 +3155,9 @@
       <c r="B12" s="6">
         <v>3.8300000000000001</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
@@ -3127,7 +3168,9 @@
       <c r="B13" s="6">
         <v>4.0499999999999998</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
@@ -3138,7 +3181,9 @@
       <c r="B14" s="6">
         <v>3.9100000000000001</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
@@ -3149,7 +3194,9 @@
       <c r="B15" s="6">
         <v>2.8700000000000001</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
@@ -3160,7 +3207,9 @@
       <c r="B16" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6">
+        <v>0.02</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -3190,7 +3239,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="14.140625"/>
   </cols>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
@@ -438,6 +438,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -3263,12 +3264,12 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.8799999999999999</v>
-      </c>
-      <c r="C2">
+        <v>-55</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="C2" s="6">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -3280,247 +3281,251 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1.54</v>
-      </c>
-      <c r="C3">
+        <v>-50</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="C3" s="6">
         <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.089999999999999997</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
+        <v>-45</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.3100000000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1.23</v>
-      </c>
-      <c r="C5">
-        <v>0.029999999999999999</v>
+        <v>-40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.73999999999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1.95</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
+        <v>-35</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C7">
+        <v>-30</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0.40999999999999998</v>
-      </c>
-      <c r="C8">
+        <v>-25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>1.03</v>
-      </c>
-      <c r="C9">
+        <v>-20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>1.75</v>
-      </c>
-      <c r="C10">
-        <v>0.029999999999999999</v>
+        <v>-15</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>1.5700000000000001</v>
-      </c>
-      <c r="C11">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>0.94999999999999996</v>
-      </c>
-      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.6600000000000001</v>
+      </c>
+      <c r="C12" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>0.53000000000000003</v>
-      </c>
-      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.8799999999999999</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-5</v>
-      </c>
-      <c r="B14">
-        <v>2.6600000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.02</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-10</v>
-      </c>
-      <c r="B15">
-        <v>1.55</v>
-      </c>
-      <c r="C15">
-        <v>0.029999999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-15</v>
-      </c>
-      <c r="B16">
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.01</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-20</v>
-      </c>
-      <c r="B17">
-        <v>1.27</v>
-      </c>
-      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="C17" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-25</v>
-      </c>
-      <c r="B18">
-        <v>1.5</v>
-      </c>
-      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C18" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-30</v>
-      </c>
-      <c r="B19">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.40999999999999998</v>
+      </c>
+      <c r="C19" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-35</v>
-      </c>
-      <c r="B20">
-        <v>0.38</v>
-      </c>
-      <c r="C20">
-        <v>0.01</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-40</v>
-      </c>
-      <c r="B21">
-        <v>0.73999999999999999</v>
-      </c>
-      <c r="C21">
-        <v>0.02</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-45</v>
-      </c>
-      <c r="B22">
-        <v>1.3100000000000001</v>
-      </c>
-      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1.5700000000000001</v>
+      </c>
+      <c r="C22" s="6">
         <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-50</v>
-      </c>
-      <c r="B23">
-        <v>1.26</v>
-      </c>
-      <c r="C23">
-        <v>0.029999999999999999</v>
+        <v>50</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-55</v>
-      </c>
-      <c r="B24">
-        <v>0.68000000000000005</v>
-      </c>
-      <c r="C24">
-        <v>0.02</v>
-      </c>
-    </row>
+        <v>55</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.53000000000000003</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25"/>
   </sheetData>
+  <sortState ref="A2:C24" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="A2:A24"/>
+  </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,13 +11,15 @@
     <sheet name="ampiezza distanza" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="brewster" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="doppia fenditura" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="fabri-perot" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bragg" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Emettitore</t>
   </si>
@@ -131,6 +133,36 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emettitore (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricevitore (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SX (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SXmax (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmax  (Volt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emettitore cm</t>
+  </si>
+  <si>
+    <t>ricevitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teta (angolo incidente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V (mV)</t>
   </si>
 </sst>
 </file>
@@ -3532,4 +3564,965 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.00390625"/>
+    <col customWidth="1" min="2" max="2" width="14.140625"/>
+    <col customWidth="1" min="7" max="7" width="16.00390625"/>
+    <col customWidth="1" min="8" max="8" width="20.57421875"/>
+    <col customWidth="1" min="9" max="9" width="13.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="12">
+        <v>49.399999999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.050000000000000003</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="12">
+        <v>48.100000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2.6299999999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="12">
+        <v>46.5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.6200000000000001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.1600000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45.200000000000003</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.1299999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="12">
+        <v>43.600000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.6699999999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="12">
+        <v>42.200000000000003</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="12">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="D9">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.1099999999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="12">
+        <v>39.5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.1400000000000001</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="12">
+        <v>38</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="6">
+        <v>36.600000000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.1099999999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.9099999999999999</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.5899999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="6">
+        <v>30.800000000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.8999999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2.1600000000000001</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.3300000000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="6">
+        <v>28.199999999999999</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.1299999999999999</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.029999999999999999</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.9399999999999999</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.3100000000000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.8200000000000001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.1099999999999999</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1.8899999999999999</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2.29</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" ht="14.25"/>
+    <row r="45" ht="14.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.421875"/>
+    <col customWidth="1" min="2" max="2" width="11.421875"/>
+    <col customWidth="1" min="3" max="3" width="20.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>560</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>982</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>178</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>220</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>540</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>1420</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>2630</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>1780</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>1590</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>1600</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>1490</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>1750</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Emettitore</t>
   </si>
@@ -27,13 +27,13 @@
     <t>Ricevitore</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha (deg)</t>
+    <t xml:space="preserve">alpha (deg) NO</t>
   </si>
   <si>
-    <t xml:space="preserve">V (Volt)</t>
+    <t xml:space="preserve">V (Volt) NO</t>
   </si>
   <si>
-    <t>sigmaV</t>
+    <t xml:space="preserve">sigmaV NO</t>
   </si>
   <si>
     <t xml:space="preserve">I (mA)</t>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>scala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha (deg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V (Volt)</t>
+  </si>
+  <si>
+    <t>sigmaV</t>
   </si>
   <si>
     <t>10cm</t>
@@ -61,12 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">teta (deg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V (Volt) NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigmaV NO</t>
   </si>
   <si>
     <t xml:space="preserve">90 (piede)</t>
@@ -173,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -204,8 +207,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +269,12 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -294,7 +309,7 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
@@ -304,15 +319,25 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="5" fillId="10" borderId="0" numFmtId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -330,7 +355,6 @@
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="8" applyFill="1"/>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -338,7 +362,7 @@
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -348,6 +372,7 @@
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
     <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
+    <cellStyle name="Good" xfId="9" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1826,6 +1851,7 @@
     <col customWidth="1" min="1" max="1" width="10.28125"/>
     <col customWidth="1" min="3" max="3" width="14.28125"/>
     <col customWidth="1" min="8" max="8" width="12.421875"/>
+    <col customWidth="1" min="10" max="10" width="11.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1835,10 +1861,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1850,245 +1876,644 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1.7</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.40000000000000002</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="G2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.6299999999999999</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1.6299999999999999</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.38</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.02</v>
+      <c r="G3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.5900000000000001</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1.45</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.34000000000000002</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.4099999999999999</v>
+      </c>
+      <c r="L4" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>45</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.26000000000000001</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.02</v>
+      <c r="G5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>60</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.80000000000000004</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.16</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.02</v>
+      <c r="G6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5">
+        <v>60</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.78000000000000003</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>75</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>0.34999999999999998</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.080000000000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5">
+        <v>75</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.34999999999999998</v>
+      </c>
+      <c r="L7" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>90</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.02</v>
+      <c r="G8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5">
+        <v>90</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>-15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>1.6399999999999999</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.38</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5">
+        <v>105</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="L9" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>-30</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>1.46</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.34000000000000002</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.02</v>
+      <c r="G10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5">
+        <v>120</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>-45</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>1.1799999999999999</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.26000000000000001</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.02</v>
+      <c r="G11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5">
+        <v>135</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>-60</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0.80000000000000004</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.17999999999999999</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.02</v>
+      <c r="G12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5">
+        <v>150</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>-75</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.35999999999999999</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.080000000000000002</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5">
+        <v>165</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.5800000000000001</v>
+      </c>
+      <c r="L13" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>-90</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>0.001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.02</v>
-      </c>
+      <c r="G14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5">
+        <v>180</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.6499999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="J15" s="5">
+        <v>-15</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.5900000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="J16" s="5">
+        <v>-30</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.4099999999999999</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="J17" s="5">
+        <v>-45</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="J18" s="5">
+        <v>-60</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.79000000000000004</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="J19" s="5">
+        <v>-75</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="J20" s="5">
+        <v>-90</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="J21" s="5">
+        <v>-105</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="J22" s="5">
+        <v>-120</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.78000000000000003</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="J23" s="5">
+        <v>-135</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1.1699999999999999</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="J24" s="5">
+        <v>-150</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.4099999999999999</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="J25" s="5">
+        <v>-165</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="J26" s="5">
+        <v>-180</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1.6499999999999999</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="J38" s="7"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="J43" s="7"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="J46" s="7"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="J47" s="7"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2117,19 +2542,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -2142,39 +2567,39 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="10">
         <v>3.5499999999999998</v>
       </c>
       <c r="C2" s="4">
         <v>0.01</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>4.6200000000000001</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>0.02</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="10">
         <v>2.7000000000000002</v>
       </c>
       <c r="C3" s="4">
         <v>0.01</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>4.1900000000000004</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="11">
         <v>0.02</v>
       </c>
     </row>
@@ -2182,16 +2607,16 @@
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="10">
         <v>1.1799999999999999</v>
       </c>
       <c r="C4" s="4">
         <v>0.01</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -2199,16 +2624,16 @@
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="10">
         <v>0.56000000000000005</v>
       </c>
       <c r="C5" s="4">
         <v>0.01</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>0.85999999999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -2216,16 +2641,16 @@
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="10">
         <v>0.20000000000000001</v>
       </c>
       <c r="C6" s="4">
         <v>0.01</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>0.31</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -2233,16 +2658,16 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="10">
         <v>0.059999999999999998</v>
       </c>
       <c r="C7" s="4">
         <v>0.0050000000000000001</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>0.050000000000000003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -2250,16 +2675,16 @@
       <c r="A8">
         <v>-10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="10">
         <v>3.0499999999999998</v>
       </c>
       <c r="C8" s="4">
         <v>0.029999999999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>3.6899999999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="11">
         <v>0.02</v>
       </c>
     </row>
@@ -2267,16 +2692,16 @@
       <c r="A9">
         <v>-20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="10">
         <v>1.6799999999999999</v>
       </c>
       <c r="C9" s="4">
         <v>0.02</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>1.8899999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>0.02</v>
       </c>
     </row>
@@ -2284,16 +2709,16 @@
       <c r="A10">
         <v>-30</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="10">
         <v>0.75</v>
       </c>
       <c r="C10" s="4">
         <v>0.02</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>0.5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="11">
         <v>0.02</v>
       </c>
     </row>
@@ -2301,16 +2726,16 @@
       <c r="A11">
         <v>-40</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>0.29999999999999999</v>
       </c>
       <c r="C11" s="4">
         <v>0.01</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>0.19</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -2318,16 +2743,16 @@
       <c r="A12">
         <v>-50</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="10">
         <v>0.11</v>
       </c>
       <c r="C12" s="4">
         <v>0.01</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>0.029999999999999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="11">
         <v>0.01</v>
       </c>
     </row>
@@ -2362,69 +2787,69 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="L1" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>54</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>3.3399999999999999</v>
       </c>
-      <c r="C2" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="15">
         <v>53.299999999999997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>3.5299999999999998</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>0.02</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="15">
         <v>47.700000000000003</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>4.8799999999999999</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>0.01</v>
       </c>
       <c r="L2">
@@ -2432,34 +2857,34 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>52.600000000000001</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>3.27</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="15">
         <v>51.899999999999999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>3.3799999999999999</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="9">
         <v>100</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="15">
         <v>40.5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="8">
         <v>4.1699999999999999</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="8">
         <v>0.02</v>
       </c>
       <c r="L3">
@@ -2467,34 +2892,34 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>51.200000000000003</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>3.2000000000000002</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="15">
         <v>50.5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>3.2799999999999998</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="9">
         <v>100</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="15">
         <v>30.300000000000001</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>3.2999999999999998</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>0.01</v>
       </c>
       <c r="L4">
@@ -2502,34 +2927,34 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>49.799999999999997</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>3.1299999999999999</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="15">
         <v>49.100000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>3.2000000000000002</v>
       </c>
-      <c r="F5" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="9">
         <v>100</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="15">
         <v>20.899999999999999</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="8">
         <v>2.7000000000000002</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>0.01</v>
       </c>
       <c r="L5">
@@ -2537,34 +2962,34 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="10">
+      <c r="A6" s="15">
         <v>48.399999999999999</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>3.0499999999999998</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="15">
         <v>47.700000000000003</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>3.1000000000000001</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="9">
         <v>100</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="15">
         <v>10.9</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>0.01</v>
       </c>
       <c r="L6">
@@ -2572,34 +2997,34 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="10">
+      <c r="A7" s="15">
         <v>47</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>2.9399999999999999</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="15">
         <v>46.299999999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="9">
         <v>100</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="15">
         <v>12</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>1.8500000000000001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>0.02</v>
       </c>
       <c r="L7">
@@ -2607,34 +3032,34 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>45.600000000000001</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>2.8500000000000001</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="15">
         <v>45</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>2.9199999999999999</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="9">
         <v>100</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="15">
         <v>11.9</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>1.73</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>0.01</v>
       </c>
       <c r="L8">
@@ -2642,45 +3067,45 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="10">
+      <c r="A9" s="15">
         <v>44.200000000000003</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>2.7400000000000002</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="15">
         <v>43.5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>2.8199999999999998</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="11">
+      <c r="A10" s="16">
         <v>46.799999999999997</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="17">
         <v>4.1299999999999999</v>
       </c>
-      <c r="C10" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="15">
         <v>47.5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>0.02</v>
       </c>
       <c r="G10">
@@ -2688,22 +3113,22 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="11">
+      <c r="A11" s="16">
         <v>45.399999999999999</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="17">
         <v>4.0300000000000002</v>
       </c>
-      <c r="C11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="15">
         <v>46.100000000000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>4.6799999999999997</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>0.02</v>
       </c>
       <c r="G11">
@@ -2711,22 +3136,22 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="11">
+      <c r="A12" s="16">
         <v>44</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="17">
         <v>3.96</v>
       </c>
-      <c r="C12" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="15">
         <v>44.600000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>4.54</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>0.01</v>
       </c>
       <c r="G12">
@@ -2734,22 +3159,22 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="11">
+      <c r="A13" s="16">
         <v>42.5</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="17">
         <v>3.8100000000000001</v>
       </c>
-      <c r="C13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="15">
         <v>43.299999999999997</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>4.3799999999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>0.02</v>
       </c>
       <c r="G13">
@@ -2757,22 +3182,22 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="11">
+      <c r="A14" s="16">
         <v>41</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="17">
         <v>3.7599999999999998</v>
       </c>
-      <c r="C14" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="15">
         <v>41.899999999999999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>0.01</v>
       </c>
       <c r="G14">
@@ -2780,22 +3205,22 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="11">
+      <c r="A15" s="16">
         <v>39.600000000000001</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="17">
         <v>3.6800000000000002</v>
       </c>
-      <c r="C15" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="15">
         <v>40.399999999999999</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>4.25</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>0.02</v>
       </c>
       <c r="G15">
@@ -2803,22 +3228,22 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="11">
+      <c r="A16" s="16">
         <v>38.200000000000003</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="17">
         <v>3.5499999999999998</v>
       </c>
-      <c r="C16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="15">
         <v>38.899999999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>4.04</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>0.02</v>
       </c>
       <c r="G16">
@@ -2826,22 +3251,22 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="11">
+      <c r="A17" s="16">
         <v>36.799999999999997</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="17">
         <v>3.4700000000000002</v>
       </c>
-      <c r="C17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="15">
         <v>37.5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>3.8500000000000001</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>0.02</v>
       </c>
       <c r="G17">
@@ -2849,22 +3274,22 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="11">
+      <c r="A18" s="16">
         <v>35.399999999999999</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="17">
         <v>3.3900000000000001</v>
       </c>
-      <c r="C18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="15">
         <v>36</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>3.7000000000000002</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>0.02</v>
       </c>
       <c r="G18">
@@ -2872,13 +3297,13 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="D19" s="10">
+      <c r="D19" s="15">
         <v>34.600000000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>3.6200000000000001</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>0.02</v>
       </c>
       <c r="G19">
@@ -2906,56 +3331,56 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>31</v>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="19">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C2" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="20">
+      <c r="C2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="24">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <v>2.71</v>
       </c>
-      <c r="H2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="10">
         <v>2.8100000000000001</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -2963,27 +3388,27 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>3.9300000000000002</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="20">
+      <c r="C3" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="24">
         <v>10</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>2.6499999999999999</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="10">
         <v>2.7799999999999998</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -2991,27 +3416,27 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>3.6000000000000001</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="20">
+      <c r="C4" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="24">
         <v>20</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="10">
         <v>2.6800000000000002</v>
       </c>
-      <c r="H4" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="10">
         <v>3.1200000000000001</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -3019,27 +3444,27 @@
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>3.5899999999999999</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="20">
+      <c r="C5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="24">
         <v>30</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10">
         <v>2.6299999999999999</v>
       </c>
-      <c r="H5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="10">
         <v>3.23</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -3047,27 +3472,27 @@
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>3.54</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="20">
+      <c r="C6" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="24">
         <v>40</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H6" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="10">
         <v>3.2599999999999998</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="10">
         <v>0.02</v>
       </c>
     </row>
@@ -3075,27 +3500,27 @@
       <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>3.3199999999999998</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="20">
+      <c r="C7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="24">
         <v>50</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10">
         <v>2.25</v>
       </c>
-      <c r="H7" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="10">
         <v>3.2400000000000002</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -3103,27 +3528,27 @@
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>3.29</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="20">
+      <c r="C8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="24">
         <v>60</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="10">
         <v>1.4199999999999999</v>
       </c>
-      <c r="H8" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="10">
         <v>2.96</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -3131,27 +3556,27 @@
       <c r="A9">
         <v>35</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>3.21</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="20">
+      <c r="C9" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="24">
         <v>70</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H9" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="10">
         <v>1.8899999999999999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -3159,98 +3584,98 @@
       <c r="A10">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>3.3300000000000001</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
         <v>45</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>3.5499999999999998</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
         <v>50</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>3.8300000000000001</v>
       </c>
-      <c r="C12" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13">
         <v>55</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>4.0499999999999998</v>
       </c>
-      <c r="C13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14">
         <v>60</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>3.9100000000000001</v>
       </c>
-      <c r="C14" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15">
         <v>65</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>2.8700000000000001</v>
       </c>
-      <c r="C15" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16">
         <v>70</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C16" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="14.25"/>
     <row r="19" ht="14.25"/>
@@ -3279,13 +3704,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3298,10 +3723,10 @@
       <c r="A2">
         <v>-55</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>0.68000000000000005</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -3315,10 +3740,10 @@
       <c r="A3">
         <v>-50</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>1.26</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3326,10 +3751,10 @@
       <c r="A4">
         <v>-45</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>1.3100000000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3337,10 +3762,10 @@
       <c r="A5">
         <v>-40</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>0.73999999999999999</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3348,10 +3773,10 @@
       <c r="A6">
         <v>-35</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>0.38</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -3359,10 +3784,10 @@
       <c r="A7">
         <v>-30</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3370,10 +3795,10 @@
       <c r="A8">
         <v>-25</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>1.5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3381,10 +3806,10 @@
       <c r="A9">
         <v>-20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>1.27</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3392,10 +3817,10 @@
       <c r="A10">
         <v>-15</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>0.17000000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -3403,10 +3828,10 @@
       <c r="A11">
         <v>-10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>1.55</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3414,10 +3839,10 @@
       <c r="A12">
         <v>-5</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>2.6600000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3425,10 +3850,10 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>2.8799999999999999</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3436,10 +3861,10 @@
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>1.54</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3447,10 +3872,10 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>0.089999999999999997</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3458,10 +3883,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>1.23</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3469,10 +3894,10 @@
       <c r="A17">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>1.95</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3480,10 +3905,10 @@
       <c r="A18">
         <v>25</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3491,10 +3916,10 @@
       <c r="A19">
         <v>30</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>0.40999999999999998</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3502,10 +3927,10 @@
       <c r="A20">
         <v>35</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>1.03</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3513,10 +3938,10 @@
       <c r="A21">
         <v>40</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>1.75</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3524,10 +3949,10 @@
       <c r="A22">
         <v>45</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>1.5700000000000001</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3535,10 +3960,10 @@
       <c r="A23">
         <v>50</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <v>0.94999999999999996</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3546,10 +3971,10 @@
       <c r="A24">
         <v>55</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>0.53000000000000003</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3584,31 +4009,31 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>23</v>
+      <c r="H1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -3624,19 +4049,19 @@
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>1.96</v>
       </c>
-      <c r="F2" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="17">
         <v>49.399999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>2.48</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>0.050000000000000003</v>
       </c>
     </row>
@@ -3644,19 +4069,19 @@
       <c r="D3">
         <v>49</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="17">
         <v>48.100000000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="8">
         <v>2.6299999999999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3664,19 +4089,19 @@
       <c r="D4">
         <v>48</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="17">
         <v>46.5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>2.6200000000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3684,19 +4109,19 @@
       <c r="D5">
         <v>47</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>2.1600000000000001</v>
       </c>
-      <c r="F5" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="17">
         <v>45.200000000000003</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -3704,19 +4129,19 @@
       <c r="D6">
         <v>46</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>2.1299999999999999</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="17">
         <v>43.600000000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>2.5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3724,19 +4149,19 @@
       <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>2.6699999999999999</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="17">
         <v>42.200000000000003</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="8">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3744,19 +4169,19 @@
       <c r="D8">
         <v>44</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <v>2.52</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -3764,19 +4189,19 @@
       <c r="D9">
         <v>43</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>2.1099999999999999</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="17">
         <v>39.5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <v>2.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3784,19 +4209,19 @@
       <c r="D10">
         <v>42</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>2.1400000000000001</v>
       </c>
-      <c r="F10" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="17">
         <v>38</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <v>2.48</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3804,19 +4229,19 @@
       <c r="D11">
         <v>41</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>2.46</v>
       </c>
-      <c r="F11" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="8">
         <v>36.600000000000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="8">
         <v>2.52</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3824,19 +4249,19 @@
       <c r="D12">
         <v>40</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>2.1099999999999999</v>
       </c>
-      <c r="F12" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="8">
         <v>35.200000000000003</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="8">
         <v>2.5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3844,19 +4269,19 @@
       <c r="D13">
         <v>39</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>1.9099999999999999</v>
       </c>
-      <c r="F13" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="8">
         <v>33.700000000000003</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="8">
         <v>2.4399999999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3864,19 +4289,19 @@
       <c r="D14">
         <v>38</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>2.5899999999999999</v>
       </c>
-      <c r="F14" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="8">
         <v>32.299999999999997</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3884,19 +4309,19 @@
       <c r="D15">
         <v>37</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>2.25</v>
       </c>
-      <c r="F15" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="8">
         <v>30.800000000000001</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <v>2.25</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3904,19 +4329,19 @@
       <c r="D16">
         <v>36</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>1.8999999999999999</v>
       </c>
-      <c r="F16" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="8">
         <v>29.5</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>2.1600000000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3924,19 +4349,19 @@
       <c r="D17">
         <v>35</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>2.3300000000000001</v>
       </c>
-      <c r="F17" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="8">
         <v>28.199999999999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="8">
         <v>2.1299999999999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8">
         <v>0.029999999999999999</v>
       </c>
     </row>
@@ -3944,10 +4369,10 @@
       <c r="D18">
         <v>34</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3955,10 +4380,10 @@
       <c r="D19">
         <v>33</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>2.02</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3966,10 +4391,10 @@
       <c r="D20">
         <v>32</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>1.9399999999999999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3977,10 +4402,10 @@
       <c r="D21">
         <v>31</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>2.3100000000000001</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3988,10 +4413,10 @@
       <c r="D22">
         <v>30</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>2.0800000000000001</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -3999,10 +4424,10 @@
       <c r="D23">
         <v>29</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="8">
         <v>1.74</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4010,10 +4435,10 @@
       <c r="D24">
         <v>28</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4021,10 +4446,10 @@
       <c r="D25">
         <v>27</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="8">
         <v>2.0800000000000001</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4032,10 +4457,10 @@
       <c r="D26">
         <v>26</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="8">
         <v>1.75</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4043,10 +4468,10 @@
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="8">
         <v>2.0800000000000001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4054,10 +4479,10 @@
       <c r="D28">
         <v>24</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4065,10 +4490,10 @@
       <c r="D29">
         <v>23</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="8">
         <v>1.8899999999999999</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4076,10 +4501,10 @@
       <c r="D30">
         <v>22</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="8">
         <v>1.8200000000000001</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4087,10 +4512,10 @@
       <c r="D31">
         <v>21</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="8">
         <v>2.1099999999999999</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4098,10 +4523,10 @@
       <c r="D32">
         <v>20</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="8">
         <v>2.04</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4109,10 +4534,10 @@
       <c r="D33">
         <v>19</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="8">
         <v>1.8</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4120,10 +4545,10 @@
       <c r="D34">
         <v>18</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="8">
         <v>2.0800000000000001</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4131,10 +4556,10 @@
       <c r="D35">
         <v>17</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="8">
         <v>2.0800000000000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4142,10 +4567,10 @@
       <c r="D36">
         <v>16</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="8">
         <v>1.78</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4153,10 +4578,10 @@
       <c r="D37">
         <v>15</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="8">
         <v>1.8899999999999999</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4164,10 +4589,10 @@
       <c r="D38">
         <v>14</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -4175,139 +4600,139 @@
       <c r="D39">
         <v>13</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="8">
         <v>2.29</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" ht="14.25"/>
     <row r="45" ht="14.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -4333,19 +4758,19 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25">

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
@@ -2760,6 +2760,7 @@
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>
+    <row r="19" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/20240509micoonde/dati_microonde.xlsx
+++ b/20240509micoonde/dati_microonde.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="malus" sheetId="1" state="visible" r:id="rId1"/>
